--- a/data/trans_orig/P36BPD09_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>39522</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27685</v>
+        <v>27221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55477</v>
+        <v>55085</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07177670622712122</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0502803394515909</v>
+        <v>0.04943702830192521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1007537679340756</v>
+        <v>0.1000414159221525</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -762,19 +762,19 @@
         <v>39878</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30143</v>
+        <v>29568</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54403</v>
+        <v>52640</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08164922437203831</v>
+        <v>0.0816492243720383</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06171559391093191</v>
+        <v>0.06053865782420411</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1113867946542733</v>
+        <v>0.1077785546692144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -783,19 +783,19 @@
         <v>79400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63653</v>
+        <v>62789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99230</v>
+        <v>97796</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07641742811933101</v>
+        <v>0.076417428119331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06126236071765957</v>
+        <v>0.06043055290467164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09550279862725138</v>
+        <v>0.09412235929690697</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>369406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>344919</v>
+        <v>347014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393803</v>
+        <v>394061</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6708931091652148</v>
+        <v>0.6708931091652147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6264217628251796</v>
+        <v>0.6302270520653751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7152014724960594</v>
+        <v>0.7156697238618266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>445</v>
@@ -833,19 +833,19 @@
         <v>308940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289939</v>
+        <v>288288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327430</v>
+        <v>327970</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6325406555979022</v>
+        <v>0.6325406555979021</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5936366152273904</v>
+        <v>0.5902564326621622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6703977164743367</v>
+        <v>0.6715042223607532</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>825</v>
@@ -854,19 +854,19 @@
         <v>678346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>649267</v>
+        <v>645648</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>711014</v>
+        <v>708057</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6528649760914434</v>
+        <v>0.6528649760914433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6248788625156668</v>
+        <v>0.6213956006854745</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6843065827888547</v>
+        <v>0.6814603417104217</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>141691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120183</v>
+        <v>121095</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>164392</v>
+        <v>164087</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.257330184607664</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2182694718575813</v>
+        <v>0.2199247774900281</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2985597413122407</v>
+        <v>0.2980058724129591</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>190</v>
@@ -904,19 +904,19 @@
         <v>139593</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122636</v>
+        <v>123511</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>158951</v>
+        <v>158124</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2858101200300596</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2510909754781628</v>
+        <v>0.2528839618580631</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3254442863149605</v>
+        <v>0.3237520789103653</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>328</v>
@@ -925,19 +925,19 @@
         <v>281283</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>251056</v>
+        <v>255521</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308406</v>
+        <v>310489</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2707175957892256</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2416251875115679</v>
+        <v>0.2459224752627242</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2968215082784165</v>
+        <v>0.2988260607406397</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>36490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25584</v>
+        <v>26185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49969</v>
+        <v>50028</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07551463903932917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05294554839507248</v>
+        <v>0.05418934815891486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1034109476690677</v>
+        <v>0.1035320743961477</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -1050,19 +1050,19 @@
         <v>35850</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27292</v>
+        <v>26038</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48030</v>
+        <v>48049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08472300498238521</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06449750317317429</v>
+        <v>0.06153385954747366</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1135077794855334</v>
+        <v>0.1135522689878918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -1071,19 +1071,19 @@
         <v>72340</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58005</v>
+        <v>57416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>88441</v>
+        <v>88567</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07981367665975744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06399851325853091</v>
+        <v>0.06334830228834583</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09757846026420329</v>
+        <v>0.09771807952885805</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>334299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>311074</v>
+        <v>310825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>355417</v>
+        <v>354499</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6918266088986055</v>
+        <v>0.6918266088986054</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6437629548653335</v>
+        <v>0.6432475339635353</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7355303372334493</v>
+        <v>0.7336304768674431</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>404</v>
@@ -1121,19 +1121,19 @@
         <v>287438</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>268263</v>
+        <v>270752</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>304101</v>
+        <v>304381</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6792935517947544</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6339765623890985</v>
+        <v>0.6398601648720484</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7186716967839759</v>
+        <v>0.7193344111277056</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>746</v>
@@ -1142,19 +1142,19 @@
         <v>621737</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>592909</v>
+        <v>591071</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>647563</v>
+        <v>648776</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6859753987792834</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6541690690345018</v>
+        <v>0.6521405501760132</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7144695377565203</v>
+        <v>0.7158081079971654</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>112424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93620</v>
+        <v>92839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134266</v>
+        <v>135173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2326587520620654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1937445517298573</v>
+        <v>0.1921293751534376</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2778621483834295</v>
+        <v>0.2797387416994479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -1192,19 +1192,19 @@
         <v>99855</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84949</v>
+        <v>86268</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116832</v>
+        <v>116686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2359834432228603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.200756913772898</v>
+        <v>0.2038740013855244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.27610516079108</v>
+        <v>0.2757600439379119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -1213,19 +1213,19 @@
         <v>212278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>189025</v>
+        <v>185773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239743</v>
+        <v>240052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2342109245609593</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.208555160249824</v>
+        <v>0.204966907589898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2645130727989778</v>
+        <v>0.264854465456888</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>29219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19831</v>
+        <v>19035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42195</v>
+        <v>41244</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06225993639183658</v>
+        <v>0.06225993639183659</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04225661103916604</v>
+        <v>0.04056004390839969</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08990906222364019</v>
+        <v>0.08788219879570397</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1338,19 +1338,19 @@
         <v>7980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3970</v>
+        <v>3616</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15016</v>
+        <v>14103</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04268877083544542</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02124041710081075</v>
+        <v>0.01934553381666059</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08033130727938327</v>
+        <v>0.07544368692544637</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>39</v>
@@ -1359,19 +1359,19 @@
         <v>37199</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27095</v>
+        <v>26429</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50756</v>
+        <v>51702</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05668511321423588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04128790180210497</v>
+        <v>0.04027376161233268</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07734341304260343</v>
+        <v>0.07878487342899625</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>304713</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>283541</v>
+        <v>282499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>325834</v>
+        <v>324870</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6492800460904627</v>
+        <v>0.6492800460904629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.604168033688589</v>
+        <v>0.6019460077265865</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6942849603660823</v>
+        <v>0.6922299286179702</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -1409,19 +1409,19 @@
         <v>111759</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101143</v>
+        <v>100803</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123433</v>
+        <v>122979</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5978666648796763</v>
+        <v>0.5978666648796762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5410785362834615</v>
+        <v>0.539257323655875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6603218652351621</v>
+        <v>0.657894061366919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>492</v>
@@ -1430,19 +1430,19 @@
         <v>416472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>394951</v>
+        <v>390820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>441681</v>
+        <v>441674</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6346350057433836</v>
+        <v>0.6346350057433838</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6018415221109598</v>
+        <v>0.595546560506492</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6730504962046568</v>
+        <v>0.6730391278963072</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>135377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115439</v>
+        <v>116208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154978</v>
+        <v>157166</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2884600175177005</v>
+        <v>0.2884600175177006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2459760712816591</v>
+        <v>0.2476156043842431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3302258358992112</v>
+        <v>0.3348882088009831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -1480,19 +1480,19 @@
         <v>67191</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55582</v>
+        <v>56153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78012</v>
+        <v>78100</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3594445642848783</v>
+        <v>0.3594445642848782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2973442112292746</v>
+        <v>0.3003989302032016</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4173356545325196</v>
+        <v>0.4178081937102534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>242</v>
@@ -1501,19 +1501,19 @@
         <v>202567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>179683</v>
+        <v>179197</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224463</v>
+        <v>227242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3086798810423803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.273807271743443</v>
+        <v>0.2730665043720212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3420450776981065</v>
+        <v>0.3462795442113614</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>92984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71569</v>
+        <v>71930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117598</v>
+        <v>119191</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08220152901572592</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06326921807080334</v>
+        <v>0.06358822407715028</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1039609689049491</v>
+        <v>0.1053692836805057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1626,19 +1626,19 @@
         <v>54764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42304</v>
+        <v>43528</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68134</v>
+        <v>69465</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06363200120659819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04915364351668409</v>
+        <v>0.05057579471819543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0791667048849909</v>
+        <v>0.0807130359769318</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -1647,19 +1647,19 @@
         <v>147749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123406</v>
+        <v>118596</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>176376</v>
+        <v>172650</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07417786254973653</v>
+        <v>0.07417786254973655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06195629641003</v>
+        <v>0.05954145675705688</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08855019837110145</v>
+        <v>0.08667951533832956</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>718729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>683328</v>
+        <v>680018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>751905</v>
+        <v>752935</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6353815902196683</v>
+        <v>0.6353815902196682</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6040860740345567</v>
+        <v>0.6011595373194714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6647106949464259</v>
+        <v>0.665620735313149</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>856</v>
@@ -1697,19 +1697,19 @@
         <v>599402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>575049</v>
+        <v>575544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>623191</v>
+        <v>621265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6964607563612474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6681642758011577</v>
+        <v>0.6687396581884454</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.724102200774888</v>
+        <v>0.7218639734821977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1573</v>
@@ -1718,19 +1718,19 @@
         <v>1318131</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1275543</v>
+        <v>1273877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1357551</v>
+        <v>1359676</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.661773152901186</v>
+        <v>0.6617731529011862</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6403915698397319</v>
+        <v>0.6395550916545666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6815641419869677</v>
+        <v>0.6826310672269374</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>319463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>286830</v>
+        <v>288930</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>350237</v>
+        <v>353370</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2824168807646057</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2535678769608036</v>
+        <v>0.255424075518024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.309621528404657</v>
+        <v>0.3123916177466158</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>302</v>
@@ -1768,19 +1768,19 @@
         <v>206474</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>185584</v>
+        <v>186331</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>228832</v>
+        <v>228373</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2399072424321545</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2156354255458779</v>
+        <v>0.2165032764486314</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2658859937166023</v>
+        <v>0.2653526356104003</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>626</v>
@@ -1789,19 +1789,19 @@
         <v>525937</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>490644</v>
+        <v>487358</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>565723</v>
+        <v>567942</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2640489845490774</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2463296672126317</v>
+        <v>0.2446802475765474</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2840234561168843</v>
+        <v>0.2851376733176843</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>47117</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33388</v>
+        <v>33439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65053</v>
+        <v>66398</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08323013501782012</v>
+        <v>0.08323013501782013</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05897897316612163</v>
+        <v>0.05906775054578636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1149135098570369</v>
+        <v>0.1172886615939929</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -1914,19 +1914,19 @@
         <v>53774</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42782</v>
+        <v>41733</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66076</v>
+        <v>65096</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06493742479764007</v>
+        <v>0.06493742479764006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05166278337062901</v>
+        <v>0.0503966058119621</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07979334900053379</v>
+        <v>0.07860921862204626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>120</v>
@@ -1935,19 +1935,19 @@
         <v>100891</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>83441</v>
+        <v>83749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>123613</v>
+        <v>123216</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07236506972883916</v>
+        <v>0.07236506972883915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05984859347353702</v>
+        <v>0.06006996688161903</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08866216951149328</v>
+        <v>0.08837771120721875</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>342047</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>317289</v>
+        <v>315971</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>369630</v>
+        <v>366675</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6042104511410931</v>
+        <v>0.604210451141093</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5604755385248179</v>
+        <v>0.5581473380536782</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6529341052863091</v>
+        <v>0.6477138285153425</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>757</v>
@@ -1985,19 +1985,19 @@
         <v>492288</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>469452</v>
+        <v>467989</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>513953</v>
+        <v>517722</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5944844444244095</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5669085873420531</v>
+        <v>0.5651418043654964</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.620646896372093</v>
+        <v>0.6251980885157661</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1090</v>
@@ -2006,19 +2006,19 @@
         <v>834335</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>799451</v>
+        <v>798893</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>866569</v>
+        <v>869755</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.5984336309375314</v>
+        <v>0.5984336309375313</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5734125457293948</v>
+        <v>0.5730123929947416</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6215534440608388</v>
+        <v>0.6238392048906887</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>176942</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153786</v>
+        <v>154482</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200966</v>
+        <v>203751</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3125594138410869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2716566642631692</v>
+        <v>0.2728850634962163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.354997739534173</v>
+        <v>0.3599158485642378</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>445</v>
@@ -2056,19 +2056,19 @@
         <v>282030</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>259117</v>
+        <v>259967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>303507</v>
+        <v>305281</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3405781307779504</v>
+        <v>0.3405781307779503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3129081705783069</v>
+        <v>0.313934889881161</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3665130746511862</v>
+        <v>0.3686558202252505</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>620</v>
@@ -2077,19 +2077,19 @@
         <v>458972</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>426941</v>
+        <v>426939</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>492940</v>
+        <v>494098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3292012993336293</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3062271662076048</v>
+        <v>0.3062258236542762</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3535655118135483</v>
+        <v>0.3543956916009069</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>19629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8936</v>
+        <v>8978</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36921</v>
+        <v>37679</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08274297061813161</v>
+        <v>0.0827429706181316</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03767002426884954</v>
+        <v>0.03784549777908246</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1556363545860104</v>
+        <v>0.1588316878992202</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -2202,19 +2202,19 @@
         <v>76651</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61252</v>
+        <v>61344</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96861</v>
+        <v>95037</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0910866020336191</v>
+        <v>0.09108660203361908</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07278742012035476</v>
+        <v>0.07289609413406113</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1151024785450831</v>
+        <v>0.1129353382689886</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>97</v>
@@ -2223,19 +2223,19 @@
         <v>96280</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>77245</v>
+        <v>76034</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>119568</v>
+        <v>122096</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08925175379878551</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07160569885637826</v>
+        <v>0.07048395469417423</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1108390608559575</v>
+        <v>0.1131825445095167</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>172707</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>147540</v>
+        <v>147556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191785</v>
+        <v>191819</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7280232199206945</v>
+        <v>0.7280232199206943</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6219326314891411</v>
+        <v>0.6220026619929382</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8084425512571387</v>
+        <v>0.8085859849741576</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>754</v>
@@ -2273,19 +2273,19 @@
         <v>559697</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>533075</v>
+        <v>534425</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>586383</v>
+        <v>584902</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6651017301866667</v>
+        <v>0.6651017301866666</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6334660216464912</v>
+        <v>0.6350699001857766</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6968131587198154</v>
+        <v>0.6950537730784684</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>836</v>
@@ -2294,19 +2294,19 @@
         <v>732405</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>699843</v>
+        <v>696129</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>769051</v>
+        <v>764497</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6789387968813049</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6487542496048286</v>
+        <v>0.6453111182017129</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7129100863856982</v>
+        <v>0.7086888969814206</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>44892</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27754</v>
+        <v>27685</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66745</v>
+        <v>67242</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1892338094611739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1169930986409082</v>
+        <v>0.1167016573611958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2813528875025035</v>
+        <v>0.2834485309664369</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>314</v>
@@ -2344,19 +2344,19 @@
         <v>205173</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>182197</v>
+        <v>182513</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>231207</v>
+        <v>229382</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2438116677797143</v>
+        <v>0.2438116677797142</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2165095775503827</v>
+        <v>0.2168851639048091</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2747495087664231</v>
+        <v>0.2725802696924494</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>335</v>
@@ -2365,19 +2365,19 @@
         <v>250064</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>219777</v>
+        <v>222442</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>281887</v>
+        <v>281686</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2318094493199095</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2037331518205076</v>
+        <v>0.2062041121245157</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2613090188372319</v>
+        <v>0.2611224843879173</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>264961</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>230257</v>
+        <v>227756</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>304739</v>
+        <v>302891</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.07707613403917325</v>
+        <v>0.07707613403917328</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06698096113666248</v>
+        <v>0.06625344617723274</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08864758503937321</v>
+        <v>0.08810994836374125</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>348</v>
@@ -2490,19 +2490,19 @@
         <v>268898</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>240727</v>
+        <v>240785</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>297664</v>
+        <v>295507</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07410233266532185</v>
+        <v>0.07410233266532183</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06633908553901435</v>
+        <v>0.06635497444972102</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0820297159312509</v>
+        <v>0.08143539796219497</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>571</v>
@@ -2511,19 +2511,19 @@
         <v>533858</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>483571</v>
+        <v>490662</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>583289</v>
+        <v>584311</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0755490254160756</v>
+        <v>0.07554902541607558</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06843253980497775</v>
+        <v>0.06943611945623465</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08254422656950425</v>
+        <v>0.08268885221516993</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>2241901</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2184230</v>
+        <v>2180618</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2311103</v>
+        <v>2306227</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6521610404713934</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6353845476329542</v>
+        <v>0.6343338514243094</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6722914229904156</v>
+        <v>0.6708731189620287</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3392</v>
@@ -2561,19 +2561,19 @@
         <v>2359523</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2305546</v>
+        <v>2311071</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2409785</v>
+        <v>2408626</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6502329241575981</v>
+        <v>0.6502329241575983</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6353579445714693</v>
+        <v>0.6368807087971369</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6640840309834178</v>
+        <v>0.6637646401344662</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5562</v>
@@ -2582,19 +2582,19 @@
         <v>4601424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4524101</v>
+        <v>4515815</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4682024</v>
+        <v>4667836</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.651170912793391</v>
+        <v>0.6511709127933909</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6402285492525085</v>
+        <v>0.6390558522968096</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6625769269510905</v>
+        <v>0.6605690997675355</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>930788</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>868842</v>
+        <v>870035</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>986806</v>
+        <v>986442</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2707628254894333</v>
+        <v>0.2707628254894334</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2527431292597599</v>
+        <v>0.2530900325342152</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2870583477955804</v>
+        <v>0.286952435775739</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1494</v>
@@ -2632,19 +2632,19 @@
         <v>1000314</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>956508</v>
+        <v>955245</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1053302</v>
+        <v>1046189</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.27566474317708</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2635927246625925</v>
+        <v>0.2632446552055546</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2902671309688319</v>
+        <v>0.2883067098470828</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2395</v>
@@ -2653,19 +2653,19 @@
         <v>1931102</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1861683</v>
+        <v>1864150</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2002517</v>
+        <v>2004703</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2732800617905334</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2634561704211548</v>
+        <v>0.2638052603812877</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2833863951124268</v>
+        <v>0.2836956641357706</v>
       </c>
     </row>
     <row r="31">
